--- a/src/assets/templates/lab_template.xlsx
+++ b/src/assets/templates/lab_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thinhle/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AFB75A-8C7E-4D60-BDBC-302984D37B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE50E58-E3B9-7845-9EF9-371502CC9E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="35314" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>#</t>
   </si>
@@ -28,13 +28,43 @@
     <t>1</t>
   </si>
   <si>
-    <t>Lab 1</t>
-  </si>
-  <si>
     <t>Lab name</t>
   </si>
   <si>
     <t>Capacity</t>
+  </si>
+  <si>
+    <t>PM1</t>
+  </si>
+  <si>
+    <t>PM2</t>
+  </si>
+  <si>
+    <t>PM4</t>
+  </si>
+  <si>
+    <t>A5-301A</t>
+  </si>
+  <si>
+    <t>A5-301B</t>
+  </si>
+  <si>
+    <t>A5-302A</t>
+  </si>
+  <si>
+    <t>A5-302B</t>
+  </si>
+  <si>
+    <t>A5-303</t>
+  </si>
+  <si>
+    <t>A5-304</t>
+  </si>
+  <si>
+    <t>A5-203</t>
+  </si>
+  <si>
+    <t>A5-204</t>
   </si>
 </sst>
 </file>
@@ -491,167 +521,189 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.35546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>

--- a/src/assets/templates/lab_template.xlsx
+++ b/src/assets/templates/lab_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thinhle/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thinhle/dev/typescript/lab-manamgement-web-v2/src/assets/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE50E58-E3B9-7845-9EF9-371502CC9E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83207FE7-5FC1-7441-91DF-F683804D5A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>#</t>
   </si>
@@ -32,39 +32,6 @@
   </si>
   <si>
     <t>Capacity</t>
-  </si>
-  <si>
-    <t>PM1</t>
-  </si>
-  <si>
-    <t>PM2</t>
-  </si>
-  <si>
-    <t>PM4</t>
-  </si>
-  <si>
-    <t>A5-301A</t>
-  </si>
-  <si>
-    <t>A5-301B</t>
-  </si>
-  <si>
-    <t>A5-302A</t>
-  </si>
-  <si>
-    <t>A5-302B</t>
-  </si>
-  <si>
-    <t>A5-303</t>
-  </si>
-  <si>
-    <t>A5-304</t>
-  </si>
-  <si>
-    <t>A5-203</t>
-  </si>
-  <si>
-    <t>A5-204</t>
   </si>
 </sst>
 </file>
@@ -521,7 +488,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B2" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,122 +512,78 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4">
-        <v>20</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>20</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4">
-        <v>30</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4">
-        <v>30</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4">
-        <v>30</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>30</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4">
-        <v>30</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4">
-        <v>60</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4">
-        <v>36</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4">
-        <v>60</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4">
-        <v>60</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>

--- a/src/assets/templates/lab_template.xlsx
+++ b/src/assets/templates/lab_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thinhle/dev/typescript/lab-manamgement-web-v2/src/assets/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83207FE7-5FC1-7441-91DF-F683804D5A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7178BD-48C6-40F4-971A-B04BA689CA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="35314" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -488,16 +488,16 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.35546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,125 +508,143 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>

--- a/src/assets/templates/lab_template.xlsx
+++ b/src/assets/templates/lab_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thinhle/dev/typescript/lab-manamgement-web-v2/src/assets/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7178BD-48C6-40F4-971A-B04BA689CA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E7136E-20F6-A547-AD42-5A8E0490A798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="35314" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>#</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Capacity</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -485,19 +488,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.35546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.640625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,146 +511,169 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
